--- a/2DAE11_Programming4_03_Minajevs_Ivans.xlsx
+++ b/2DAE11_Programming4_03_Minajevs_Ivans.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DAE\programming\programming_4\project\game_engine_programming_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81BC1932-B84D-4091-BD49-5ED15475641A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FC553E-358A-40AE-9582-09D4E4D6D203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97497A40-55F6-4B7C-A501-BBE1B0382C97}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{97497A40-55F6-4B7C-A501-BBE1B0382C97}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Exercise 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Exercise 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,10 +36,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Timings</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -66,13 +89,2488 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="247">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -83,6 +2581,1898 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Exercise 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exercise 1'!$B$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>41530.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33939.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32364.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30763.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27278</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21433.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11084.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7917.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3813.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-5348-441B-B7FE-1D6C3AC58F27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="516022943"/>
+        <c:axId val="516033983"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="516022943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516033983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516033983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516022943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lv-LV"/>
+              <a:t>Exercise 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GameObject</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exercise 2'!$B$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5891.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1357.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>231.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACF4-4347-AB07-20B45DAA687C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GameObjectAlt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exercise 2'!$P$13:$Z$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1464.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1180.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1056.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>462.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>251.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACF4-4347-AB07-20B45DAA687C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1040116831"/>
+        <c:axId val="1040104831"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1040116831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1040104831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1040104831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1040116831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>591204</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>271514</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>113861</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25296EDE-9738-FC94-D3B3-E99EDA37B783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>568412</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>105021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>224283</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>82898</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48051E4-4FBD-058E-5880-82F37194B309}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +4792,1362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563017FE-0051-41FA-B394-313E293CC82A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>42654</v>
+      </c>
+      <c r="C2">
+        <v>32750</v>
+      </c>
+      <c r="D2">
+        <v>30894</v>
+      </c>
+      <c r="E2">
+        <v>29721</v>
+      </c>
+      <c r="F2">
+        <v>25274</v>
+      </c>
+      <c r="G2">
+        <v>21484</v>
+      </c>
+      <c r="H2">
+        <v>11230</v>
+      </c>
+      <c r="I2">
+        <v>7908</v>
+      </c>
+      <c r="J2">
+        <v>3769</v>
+      </c>
+      <c r="K2">
+        <v>2173</v>
+      </c>
+      <c r="L2">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>40624</v>
+      </c>
+      <c r="C3">
+        <v>34669</v>
+      </c>
+      <c r="D3">
+        <v>35013</v>
+      </c>
+      <c r="E3">
+        <v>31234</v>
+      </c>
+      <c r="F3">
+        <v>24545</v>
+      </c>
+      <c r="G3">
+        <v>21402</v>
+      </c>
+      <c r="H3">
+        <v>10820</v>
+      </c>
+      <c r="I3">
+        <v>7850</v>
+      </c>
+      <c r="J3">
+        <v>4121</v>
+      </c>
+      <c r="K3">
+        <v>2059</v>
+      </c>
+      <c r="L3">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>40838</v>
+      </c>
+      <c r="C4">
+        <v>32767</v>
+      </c>
+      <c r="D4">
+        <v>31066</v>
+      </c>
+      <c r="E4">
+        <v>30709</v>
+      </c>
+      <c r="F4">
+        <v>29750</v>
+      </c>
+      <c r="G4">
+        <v>22339</v>
+      </c>
+      <c r="H4">
+        <v>10829</v>
+      </c>
+      <c r="I4">
+        <v>8254</v>
+      </c>
+      <c r="J4">
+        <v>4138</v>
+      </c>
+      <c r="K4">
+        <v>2403</v>
+      </c>
+      <c r="L4">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>44787</v>
+      </c>
+      <c r="C5">
+        <v>34643</v>
+      </c>
+      <c r="D5">
+        <v>32733</v>
+      </c>
+      <c r="E5">
+        <v>30313</v>
+      </c>
+      <c r="F5">
+        <v>26770</v>
+      </c>
+      <c r="G5">
+        <v>21502</v>
+      </c>
+      <c r="H5">
+        <v>16655</v>
+      </c>
+      <c r="I5">
+        <v>12034</v>
+      </c>
+      <c r="J5">
+        <v>6780</v>
+      </c>
+      <c r="K5">
+        <v>3413</v>
+      </c>
+      <c r="L5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>45794</v>
+      </c>
+      <c r="C6">
+        <v>36550</v>
+      </c>
+      <c r="D6">
+        <v>34312</v>
+      </c>
+      <c r="E6">
+        <v>32104</v>
+      </c>
+      <c r="F6">
+        <v>26062</v>
+      </c>
+      <c r="G6">
+        <v>23154</v>
+      </c>
+      <c r="H6">
+        <v>12273</v>
+      </c>
+      <c r="I6">
+        <v>7988</v>
+      </c>
+      <c r="J6">
+        <v>3747</v>
+      </c>
+      <c r="K6">
+        <v>2123</v>
+      </c>
+      <c r="L6">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>77437</v>
+      </c>
+      <c r="C7">
+        <v>35265</v>
+      </c>
+      <c r="D7">
+        <v>34857</v>
+      </c>
+      <c r="E7">
+        <v>33761</v>
+      </c>
+      <c r="F7">
+        <v>31463</v>
+      </c>
+      <c r="G7">
+        <v>22359</v>
+      </c>
+      <c r="H7">
+        <v>11191</v>
+      </c>
+      <c r="I7">
+        <v>7670</v>
+      </c>
+      <c r="J7">
+        <v>3506</v>
+      </c>
+      <c r="K7">
+        <v>2008</v>
+      </c>
+      <c r="L7">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>38522</v>
+      </c>
+      <c r="C8">
+        <v>31973</v>
+      </c>
+      <c r="D8">
+        <v>30165</v>
+      </c>
+      <c r="E8">
+        <v>27950</v>
+      </c>
+      <c r="F8">
+        <v>28033</v>
+      </c>
+      <c r="G8">
+        <v>20519</v>
+      </c>
+      <c r="H8">
+        <v>10208</v>
+      </c>
+      <c r="I8">
+        <v>8141</v>
+      </c>
+      <c r="J8">
+        <v>3511</v>
+      </c>
+      <c r="K8">
+        <v>2161</v>
+      </c>
+      <c r="L8">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>40048</v>
+      </c>
+      <c r="C9">
+        <v>34614</v>
+      </c>
+      <c r="D9">
+        <v>31568</v>
+      </c>
+      <c r="E9">
+        <v>29315</v>
+      </c>
+      <c r="F9">
+        <v>28465</v>
+      </c>
+      <c r="G9">
+        <v>20555</v>
+      </c>
+      <c r="H9">
+        <v>11293</v>
+      </c>
+      <c r="I9">
+        <v>7656</v>
+      </c>
+      <c r="J9">
+        <v>3766</v>
+      </c>
+      <c r="K9">
+        <v>2367</v>
+      </c>
+      <c r="L9">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>38974</v>
+      </c>
+      <c r="C10">
+        <v>34833</v>
+      </c>
+      <c r="D10">
+        <v>32598</v>
+      </c>
+      <c r="E10">
+        <v>35580</v>
+      </c>
+      <c r="F10">
+        <v>27640</v>
+      </c>
+      <c r="G10">
+        <v>19994</v>
+      </c>
+      <c r="H10">
+        <v>10834</v>
+      </c>
+      <c r="I10">
+        <v>7703</v>
+      </c>
+      <c r="J10">
+        <v>3854</v>
+      </c>
+      <c r="K10">
+        <v>2018</v>
+      </c>
+      <c r="L10">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>38068</v>
+      </c>
+      <c r="C11">
+        <v>31735</v>
+      </c>
+      <c r="D11">
+        <v>30887</v>
+      </c>
+      <c r="E11">
+        <v>28951</v>
+      </c>
+      <c r="F11">
+        <v>26230</v>
+      </c>
+      <c r="G11">
+        <v>21307</v>
+      </c>
+      <c r="H11">
+        <v>10206</v>
+      </c>
+      <c r="I11">
+        <v>7829</v>
+      </c>
+      <c r="J11">
+        <v>3605</v>
+      </c>
+      <c r="K11">
+        <v>1998</v>
+      </c>
+      <c r="L11">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f>AVERAGE(B2:B6,B8:B10)</f>
+        <v>41530.125</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(C2:C5,C7:C10)</f>
+        <v>33939.25</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(D2,D4:D7,D9:D11)</f>
+        <v>32364.375</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE(E2:E7,E9,E11)</f>
+        <v>30763.5</v>
+      </c>
+      <c r="F14">
+        <f>AVERAGE(F2,F4:F6,F8:F11)</f>
+        <v>27278</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGE(G2:G5,G7:G9,G11)</f>
+        <v>21433.375</v>
+      </c>
+      <c r="H14">
+        <f>AVERAGE(H2:H4,H6:H10)</f>
+        <v>11084.75</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(I2:I4,I6:I8,I10:I11)</f>
+        <v>7917.875</v>
+      </c>
+      <c r="J14">
+        <f>AVERAGE(J2:J4,J6,J8:J11)</f>
+        <v>3813.875</v>
+      </c>
+      <c r="K14">
+        <f>AVERAGE(K2:K4,K6:K10)</f>
+        <v>2164</v>
+      </c>
+      <c r="L14">
+        <f>AVERAGE(L2:L4,L6:L10)</f>
+        <v>1570</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B11">
+    <cfRule type="top10" dxfId="21" priority="21" percent="1" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="20" priority="22" percent="1" rank="5"/>
+    <cfRule type="top10" priority="23" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="top10" dxfId="19" priority="19" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="20" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="top10" dxfId="17" priority="17" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="16" priority="18" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="top10" dxfId="15" priority="15" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="14" priority="16" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F11">
+    <cfRule type="top10" dxfId="13" priority="13" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="12" priority="14" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="top10" dxfId="11" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="10" priority="12" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H11">
+    <cfRule type="top10" dxfId="9" priority="9" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="10" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I11">
+    <cfRule type="top10" dxfId="7" priority="7" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="6" priority="8" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J11">
+    <cfRule type="top10" dxfId="5" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="6" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K11">
+    <cfRule type="top10" dxfId="3" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="4" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L11">
+    <cfRule type="top10" dxfId="1" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="0" priority="2" percent="1" rank="10"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAACDB63-57EB-4AF0-88F1-59DF4C1B3F1D}">
+  <dimension ref="A1:Z13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6298</v>
+      </c>
+      <c r="C2">
+        <v>6167</v>
+      </c>
+      <c r="D2">
+        <v>3247</v>
+      </c>
+      <c r="E2">
+        <v>1392</v>
+      </c>
+      <c r="F2">
+        <v>656</v>
+      </c>
+      <c r="G2">
+        <v>329</v>
+      </c>
+      <c r="H2">
+        <v>144</v>
+      </c>
+      <c r="I2">
+        <v>86</v>
+      </c>
+      <c r="J2">
+        <v>38</v>
+      </c>
+      <c r="K2">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1924</v>
+      </c>
+      <c r="Q2">
+        <v>1873</v>
+      </c>
+      <c r="R2">
+        <v>1436</v>
+      </c>
+      <c r="S2">
+        <v>1175</v>
+      </c>
+      <c r="T2">
+        <v>489</v>
+      </c>
+      <c r="U2">
+        <v>272</v>
+      </c>
+      <c r="V2">
+        <v>86</v>
+      </c>
+      <c r="W2">
+        <v>68</v>
+      </c>
+      <c r="X2">
+        <v>49</v>
+      </c>
+      <c r="Y2">
+        <v>17</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6223</v>
+      </c>
+      <c r="C3">
+        <v>5879</v>
+      </c>
+      <c r="D3">
+        <v>2497</v>
+      </c>
+      <c r="E3">
+        <v>1084</v>
+      </c>
+      <c r="F3">
+        <v>484</v>
+      </c>
+      <c r="G3">
+        <v>217</v>
+      </c>
+      <c r="H3">
+        <v>99</v>
+      </c>
+      <c r="I3">
+        <v>49</v>
+      </c>
+      <c r="J3">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>1378</v>
+      </c>
+      <c r="Q3">
+        <v>1260</v>
+      </c>
+      <c r="R3">
+        <v>1059</v>
+      </c>
+      <c r="S3">
+        <v>1138</v>
+      </c>
+      <c r="T3">
+        <v>445</v>
+      </c>
+      <c r="U3">
+        <v>235</v>
+      </c>
+      <c r="V3">
+        <v>79</v>
+      </c>
+      <c r="W3">
+        <v>58</v>
+      </c>
+      <c r="X3">
+        <v>51</v>
+      </c>
+      <c r="Y3">
+        <v>23</v>
+      </c>
+      <c r="Z3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6052</v>
+      </c>
+      <c r="C4">
+        <v>7340</v>
+      </c>
+      <c r="D4">
+        <v>3480</v>
+      </c>
+      <c r="E4">
+        <v>1579</v>
+      </c>
+      <c r="F4">
+        <v>668</v>
+      </c>
+      <c r="G4">
+        <v>334</v>
+      </c>
+      <c r="H4">
+        <v>152</v>
+      </c>
+      <c r="I4">
+        <v>84</v>
+      </c>
+      <c r="J4">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>1627</v>
+      </c>
+      <c r="Q4">
+        <v>1314</v>
+      </c>
+      <c r="R4">
+        <v>1068</v>
+      </c>
+      <c r="S4">
+        <v>1088</v>
+      </c>
+      <c r="T4">
+        <v>558</v>
+      </c>
+      <c r="U4">
+        <v>383</v>
+      </c>
+      <c r="V4">
+        <v>101</v>
+      </c>
+      <c r="W4">
+        <v>68</v>
+      </c>
+      <c r="X4">
+        <v>52</v>
+      </c>
+      <c r="Y4">
+        <v>17</v>
+      </c>
+      <c r="Z4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6589</v>
+      </c>
+      <c r="C5">
+        <v>5819</v>
+      </c>
+      <c r="D5">
+        <v>2650</v>
+      </c>
+      <c r="E5">
+        <v>1221</v>
+      </c>
+      <c r="F5">
+        <v>530</v>
+      </c>
+      <c r="G5">
+        <v>238</v>
+      </c>
+      <c r="H5">
+        <v>110</v>
+      </c>
+      <c r="I5">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="O5" s="2">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>1593</v>
+      </c>
+      <c r="Q5">
+        <v>1318</v>
+      </c>
+      <c r="R5">
+        <v>1018</v>
+      </c>
+      <c r="S5">
+        <v>790</v>
+      </c>
+      <c r="T5">
+        <v>317</v>
+      </c>
+      <c r="U5">
+        <v>177</v>
+      </c>
+      <c r="V5">
+        <v>68</v>
+      </c>
+      <c r="W5">
+        <v>70</v>
+      </c>
+      <c r="X5">
+        <v>50</v>
+      </c>
+      <c r="Y5">
+        <v>18</v>
+      </c>
+      <c r="Z5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6989</v>
+      </c>
+      <c r="C6">
+        <v>5755</v>
+      </c>
+      <c r="D6">
+        <v>2630</v>
+      </c>
+      <c r="E6">
+        <v>1170</v>
+      </c>
+      <c r="F6">
+        <v>538</v>
+      </c>
+      <c r="G6">
+        <v>244</v>
+      </c>
+      <c r="H6">
+        <v>140</v>
+      </c>
+      <c r="I6">
+        <v>66</v>
+      </c>
+      <c r="J6">
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>1090</v>
+      </c>
+      <c r="Q6">
+        <v>963</v>
+      </c>
+      <c r="R6">
+        <v>954</v>
+      </c>
+      <c r="S6">
+        <v>1307</v>
+      </c>
+      <c r="T6">
+        <v>594</v>
+      </c>
+      <c r="U6">
+        <v>298</v>
+      </c>
+      <c r="V6">
+        <v>90</v>
+      </c>
+      <c r="W6">
+        <v>68</v>
+      </c>
+      <c r="X6">
+        <v>51</v>
+      </c>
+      <c r="Y6">
+        <v>21</v>
+      </c>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6178</v>
+      </c>
+      <c r="C7">
+        <v>5613</v>
+      </c>
+      <c r="D7">
+        <v>2285</v>
+      </c>
+      <c r="E7">
+        <v>1001</v>
+      </c>
+      <c r="F7">
+        <v>441</v>
+      </c>
+      <c r="G7">
+        <v>187</v>
+      </c>
+      <c r="H7">
+        <v>86</v>
+      </c>
+      <c r="I7">
+        <v>41</v>
+      </c>
+      <c r="J7">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>1528</v>
+      </c>
+      <c r="Q7">
+        <v>1319</v>
+      </c>
+      <c r="R7">
+        <v>1059</v>
+      </c>
+      <c r="S7">
+        <v>1192</v>
+      </c>
+      <c r="T7">
+        <v>617</v>
+      </c>
+      <c r="U7">
+        <v>299</v>
+      </c>
+      <c r="V7">
+        <v>152</v>
+      </c>
+      <c r="W7">
+        <v>67</v>
+      </c>
+      <c r="X7">
+        <v>51</v>
+      </c>
+      <c r="Y7">
+        <v>20</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7010</v>
+      </c>
+      <c r="C8">
+        <v>5742</v>
+      </c>
+      <c r="D8">
+        <v>2515</v>
+      </c>
+      <c r="E8">
+        <v>1262</v>
+      </c>
+      <c r="F8">
+        <v>509</v>
+      </c>
+      <c r="G8">
+        <v>224</v>
+      </c>
+      <c r="H8">
+        <v>105</v>
+      </c>
+      <c r="I8">
+        <v>59</v>
+      </c>
+      <c r="J8">
+        <v>27</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="O8" s="2">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>1508</v>
+      </c>
+      <c r="Q8">
+        <v>1273</v>
+      </c>
+      <c r="R8">
+        <v>978</v>
+      </c>
+      <c r="S8">
+        <v>732</v>
+      </c>
+      <c r="T8">
+        <v>313</v>
+      </c>
+      <c r="U8">
+        <v>168</v>
+      </c>
+      <c r="V8">
+        <v>66</v>
+      </c>
+      <c r="W8">
+        <v>70</v>
+      </c>
+      <c r="X8">
+        <v>50</v>
+      </c>
+      <c r="Y8">
+        <v>17</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6026</v>
+      </c>
+      <c r="C9">
+        <v>5582</v>
+      </c>
+      <c r="D9">
+        <v>2213</v>
+      </c>
+      <c r="E9">
+        <v>1469</v>
+      </c>
+      <c r="F9">
+        <v>591</v>
+      </c>
+      <c r="G9">
+        <v>252</v>
+      </c>
+      <c r="H9">
+        <v>92</v>
+      </c>
+      <c r="I9">
+        <v>52</v>
+      </c>
+      <c r="J9">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="O9" s="2">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>1155</v>
+      </c>
+      <c r="Q9">
+        <v>968</v>
+      </c>
+      <c r="R9">
+        <v>1843</v>
+      </c>
+      <c r="S9">
+        <v>1233</v>
+      </c>
+      <c r="T9">
+        <v>507</v>
+      </c>
+      <c r="U9">
+        <v>258</v>
+      </c>
+      <c r="V9">
+        <v>96</v>
+      </c>
+      <c r="W9">
+        <v>63</v>
+      </c>
+      <c r="X9">
+        <v>53</v>
+      </c>
+      <c r="Y9">
+        <v>16</v>
+      </c>
+      <c r="Z9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6340</v>
+      </c>
+      <c r="C10">
+        <v>5653</v>
+      </c>
+      <c r="D10">
+        <v>2895</v>
+      </c>
+      <c r="E10">
+        <v>1057</v>
+      </c>
+      <c r="F10">
+        <v>432</v>
+      </c>
+      <c r="G10">
+        <v>186</v>
+      </c>
+      <c r="H10">
+        <v>85</v>
+      </c>
+      <c r="I10">
+        <v>43</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="O10" s="2">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>1467</v>
+      </c>
+      <c r="Q10">
+        <v>1298</v>
+      </c>
+      <c r="R10">
+        <v>1447</v>
+      </c>
+      <c r="S10">
+        <v>1176</v>
+      </c>
+      <c r="T10">
+        <v>476</v>
+      </c>
+      <c r="U10">
+        <v>251</v>
+      </c>
+      <c r="V10">
+        <v>82</v>
+      </c>
+      <c r="W10">
+        <v>69</v>
+      </c>
+      <c r="X10">
+        <v>51</v>
+      </c>
+      <c r="Y10">
+        <v>17</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6565</v>
+      </c>
+      <c r="C11">
+        <v>5368</v>
+      </c>
+      <c r="D11">
+        <v>4798</v>
+      </c>
+      <c r="E11">
+        <v>2343</v>
+      </c>
+      <c r="F11">
+        <v>707</v>
+      </c>
+      <c r="G11">
+        <v>101</v>
+      </c>
+      <c r="H11">
+        <v>31</v>
+      </c>
+      <c r="I11">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="O11" s="2">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>1378</v>
+      </c>
+      <c r="Q11">
+        <v>1174</v>
+      </c>
+      <c r="R11">
+        <v>943</v>
+      </c>
+      <c r="S11">
+        <v>732</v>
+      </c>
+      <c r="T11">
+        <v>307</v>
+      </c>
+      <c r="U11">
+        <v>176</v>
+      </c>
+      <c r="V11">
+        <v>70</v>
+      </c>
+      <c r="W11">
+        <v>71</v>
+      </c>
+      <c r="X11">
+        <v>52</v>
+      </c>
+      <c r="Y11">
+        <v>17</v>
+      </c>
+      <c r="Z11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(B2:B11)</f>
+        <v>6427</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:L13" si="0">AVERAGE(C2:C11)</f>
+        <v>5891.8</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2921</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1357.8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>555.6</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>231.2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>104.4</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>55.6</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>24.8</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <f>AVERAGE(P2:P11)</f>
+        <v>1464.8</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:Z13" si="1">AVERAGE(Q2:Q11)</f>
+        <v>1276</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>1180.5</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>1056.3</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>462.3</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>251.7</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>67.2</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>18.3</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="1"/>
+        <v>5.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>